--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -419,7 +419,7 @@
         <v>鐘型帳(2-6人)</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1800</v>
@@ -685,9 +685,6 @@
       <c r="A35" t="str">
         <v>滿漢全席</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
       <c r="C35">
         <v>4500</v>
       </c>
@@ -736,6 +733,9 @@
       <c r="A41" t="str">
         <v>黑胡椒牛肉片</v>
       </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
       <c r="C41">
         <v>600</v>
       </c>
@@ -776,6 +776,9 @@
       <c r="A46" t="str">
         <v>素甜不辣</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
       <c r="C46">
         <v>200</v>
       </c>
@@ -807,6 +810,9 @@
     <row r="50">
       <c r="A50" t="str">
         <v>韓式泡菜</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
       </c>
       <c r="C50">
         <v>200</v>

--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -419,7 +419,7 @@
         <v>鐘型帳(2-6人)</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>null</v>
       </c>
       <c r="C2">
         <v>1800</v>
@@ -686,7 +686,7 @@
         <v>滿漢全席</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4500</v>
       </c>
       <c r="C35">
         <v>4500</v>

--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -32,9 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,16 +412,19 @@
       <c r="C1" t="str">
         <v>金額</v>
       </c>
+      <c r="D1" t="str">
+        <v>圖片</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>鐘型帳(2-6人)</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+        <v>鐘型帳(2~6人)</v>
       </c>
       <c r="C2">
         <v>1800</v>
+      </c>
+      <c r="D2" t="str">
+        <v>product_1.png</v>
       </c>
     </row>
     <row r="3">
@@ -432,6 +434,9 @@
       <c r="C3">
         <v>800</v>
       </c>
+      <c r="D3" t="str">
+        <v>product_2.png</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -440,6 +445,9 @@
       <c r="C4">
         <v>900</v>
       </c>
+      <c r="D4" t="str">
+        <v>product_3.png</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -448,6 +456,9 @@
       <c r="C5">
         <v>900</v>
       </c>
+      <c r="D5" t="str">
+        <v>product_4.png</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -456,6 +467,9 @@
       <c r="C6">
         <v>700</v>
       </c>
+      <c r="D6" t="str">
+        <v>product_5.png</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -464,13 +478,22 @@
       <c r="C7">
         <v>1200</v>
       </c>
+      <c r="D7" t="str">
+        <v>product_6.png</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>客廳帳篷(10人)</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>600</v>
+      </c>
+      <c r="D8" t="str">
+        <v>product_7.png</v>
       </c>
     </row>
     <row r="9">
@@ -480,6 +503,9 @@
       <c r="C9">
         <v>300</v>
       </c>
+      <c r="D9" t="str">
+        <v>product_8.png</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -488,6 +514,9 @@
       <c r="C10">
         <v>400</v>
       </c>
+      <c r="D10" t="str">
+        <v>product_9.png</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -496,6 +525,9 @@
       <c r="C11">
         <v>150</v>
       </c>
+      <c r="D11" t="str">
+        <v>product_10.png</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -504,6 +536,9 @@
       <c r="C12">
         <v>500</v>
       </c>
+      <c r="D12" t="str">
+        <v>product_11.png</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -512,6 +547,9 @@
       <c r="C13">
         <v>700</v>
       </c>
+      <c r="D13" t="str">
+        <v>product_12.png</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -520,6 +558,9 @@
       <c r="C14">
         <v>800</v>
       </c>
+      <c r="D14" t="str">
+        <v>product_13.png</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -528,6 +569,9 @@
       <c r="C15">
         <v>100</v>
       </c>
+      <c r="D15" t="str">
+        <v>product_14.png</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -536,6 +580,9 @@
       <c r="C16">
         <v>100</v>
       </c>
+      <c r="D16" t="str">
+        <v>product_15.png</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -544,6 +591,9 @@
       <c r="C17">
         <v>150</v>
       </c>
+      <c r="D17" t="str">
+        <v>product_16.png</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -552,6 +602,9 @@
       <c r="C18">
         <v>150</v>
       </c>
+      <c r="D18" t="str">
+        <v>product_17.png</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -560,6 +613,9 @@
       <c r="C19">
         <v>250</v>
       </c>
+      <c r="D19" t="str">
+        <v>product_18.png</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -568,6 +624,9 @@
       <c r="C20">
         <v>250</v>
       </c>
+      <c r="D20" t="str">
+        <v>product_19.png</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -576,6 +635,9 @@
       <c r="C21">
         <v>400</v>
       </c>
+      <c r="D21" t="str">
+        <v>product_20.png</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -584,6 +646,9 @@
       <c r="C22">
         <v>200</v>
       </c>
+      <c r="D22" t="str">
+        <v>product_21.png</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -592,6 +657,9 @@
       <c r="C23">
         <v>100</v>
       </c>
+      <c r="D23" t="str">
+        <v>product_22.png</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -600,6 +668,9 @@
       <c r="C24">
         <v>150</v>
       </c>
+      <c r="D24" t="str">
+        <v>product_23.png</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -608,6 +679,9 @@
       <c r="C25">
         <v>200</v>
       </c>
+      <c r="D25" t="str">
+        <v>product_24.png</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -616,6 +690,9 @@
       <c r="C26">
         <v>200</v>
       </c>
+      <c r="D26" t="str">
+        <v>product_25.png</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -624,6 +701,9 @@
       <c r="C27">
         <v>500</v>
       </c>
+      <c r="D27" t="str">
+        <v>product_26.png</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -632,6 +712,9 @@
       <c r="C28">
         <v>500</v>
       </c>
+      <c r="D28" t="str">
+        <v>product_27.png</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -640,6 +723,9 @@
       <c r="C29">
         <v>150</v>
       </c>
+      <c r="D29" t="str">
+        <v>product_28.png</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -648,6 +734,9 @@
       <c r="C30">
         <v>200</v>
       </c>
+      <c r="D30" t="str">
+        <v>product_29.png</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -656,6 +745,9 @@
       <c r="C31">
         <v>200</v>
       </c>
+      <c r="D31" t="str">
+        <v>product_30.png</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -664,6 +756,9 @@
       <c r="C32">
         <v>100</v>
       </c>
+      <c r="D32" t="str">
+        <v>product_31.png</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -672,6 +767,9 @@
       <c r="C33">
         <v>100</v>
       </c>
+      <c r="D33" t="str">
+        <v>product_32.png</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -693,6 +791,9 @@
       <c r="A36" t="str">
         <v>雙人套餐</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
       <c r="C36">
         <v>1300</v>
       </c>
@@ -713,115 +814,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>招牌五花燒肉</v>
-      </c>
-      <c r="C39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>醬燒豬肉烤片</v>
-      </c>
-      <c r="C40">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>黑胡椒牛肉片</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>黑胡椒牛小排</v>
-      </c>
-      <c r="C42">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>活力鮮蝦</v>
-      </c>
-      <c r="C43">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>爆卵柳葉魚</v>
-      </c>
-      <c r="C44">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>素肉排</v>
-      </c>
-      <c r="C45">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>素甜不辣</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>筊白筍</v>
-      </c>
-      <c r="C47">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>生鮮青椒</v>
-      </c>
-      <c r="C48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>枸杞絲瓜鋁盒</v>
-      </c>
-      <c r="C49">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>韓式泡菜</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1000"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -32,9 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,16 +412,19 @@
       <c r="C1" t="str">
         <v>金額</v>
       </c>
+      <c r="D1" t="str">
+        <v>圖片</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>鐘型帳(2-6人)</v>
-      </c>
-      <c r="B2">
-        <v>null</v>
+        <v>鐘型帳(2~6人)</v>
       </c>
       <c r="C2">
         <v>1800</v>
+      </c>
+      <c r="D2" t="str">
+        <v>product_1.png</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +434,22 @@
       <c r="C3">
         <v>800</v>
       </c>
+      <c r="D3" t="str">
+        <v>product_2.png</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>亙4.8棉布屋式帳篷(2人)</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
         <v>900</v>
+      </c>
+      <c r="D4" t="str">
+        <v>product_3.png</v>
       </c>
     </row>
     <row r="5">
@@ -448,13 +459,22 @@
       <c r="C5">
         <v>900</v>
       </c>
+      <c r="D5" t="str">
+        <v>product_4.png</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>印地安帳(3人)</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>700</v>
+      </c>
+      <c r="D6" t="str">
+        <v>product_5.png</v>
       </c>
     </row>
     <row r="7">
@@ -464,6 +484,9 @@
       <c r="C7">
         <v>1200</v>
       </c>
+      <c r="D7" t="str">
+        <v>product_6.png</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -472,6 +495,9 @@
       <c r="C8">
         <v>600</v>
       </c>
+      <c r="D8" t="str">
+        <v>product_7.png</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -480,6 +506,9 @@
       <c r="C9">
         <v>300</v>
       </c>
+      <c r="D9" t="str">
+        <v>product_8.png</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -488,6 +517,9 @@
       <c r="C10">
         <v>400</v>
       </c>
+      <c r="D10" t="str">
+        <v>product_9.png</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -496,6 +528,9 @@
       <c r="C11">
         <v>150</v>
       </c>
+      <c r="D11" t="str">
+        <v>product_10.png</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -504,6 +539,9 @@
       <c r="C12">
         <v>500</v>
       </c>
+      <c r="D12" t="str">
+        <v>product_11.png</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -512,6 +550,9 @@
       <c r="C13">
         <v>700</v>
       </c>
+      <c r="D13" t="str">
+        <v>product_12.png</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -520,6 +561,9 @@
       <c r="C14">
         <v>800</v>
       </c>
+      <c r="D14" t="str">
+        <v>product_13.png</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -528,6 +572,9 @@
       <c r="C15">
         <v>100</v>
       </c>
+      <c r="D15" t="str">
+        <v>product_14.png</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -536,6 +583,9 @@
       <c r="C16">
         <v>100</v>
       </c>
+      <c r="D16" t="str">
+        <v>product_15.png</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -544,6 +594,9 @@
       <c r="C17">
         <v>150</v>
       </c>
+      <c r="D17" t="str">
+        <v>product_16.png</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -552,6 +605,9 @@
       <c r="C18">
         <v>150</v>
       </c>
+      <c r="D18" t="str">
+        <v>product_17.png</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -560,6 +616,9 @@
       <c r="C19">
         <v>250</v>
       </c>
+      <c r="D19" t="str">
+        <v>product_18.png</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -568,6 +627,9 @@
       <c r="C20">
         <v>250</v>
       </c>
+      <c r="D20" t="str">
+        <v>product_19.png</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -576,6 +638,9 @@
       <c r="C21">
         <v>400</v>
       </c>
+      <c r="D21" t="str">
+        <v>product_20.png</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -584,6 +649,9 @@
       <c r="C22">
         <v>200</v>
       </c>
+      <c r="D22" t="str">
+        <v>product_21.png</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -592,6 +660,9 @@
       <c r="C23">
         <v>100</v>
       </c>
+      <c r="D23" t="str">
+        <v>product_22.png</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -600,6 +671,9 @@
       <c r="C24">
         <v>150</v>
       </c>
+      <c r="D24" t="str">
+        <v>product_23.png</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -608,6 +682,9 @@
       <c r="C25">
         <v>200</v>
       </c>
+      <c r="D25" t="str">
+        <v>product_24.png</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -616,6 +693,9 @@
       <c r="C26">
         <v>200</v>
       </c>
+      <c r="D26" t="str">
+        <v>product_25.png</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -624,6 +704,9 @@
       <c r="C27">
         <v>500</v>
       </c>
+      <c r="D27" t="str">
+        <v>product_26.png</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -632,6 +715,9 @@
       <c r="C28">
         <v>500</v>
       </c>
+      <c r="D28" t="str">
+        <v>product_27.png</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -640,6 +726,9 @@
       <c r="C29">
         <v>150</v>
       </c>
+      <c r="D29" t="str">
+        <v>product_28.png</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -648,6 +737,9 @@
       <c r="C30">
         <v>200</v>
       </c>
+      <c r="D30" t="str">
+        <v>product_29.png</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -656,6 +748,9 @@
       <c r="C31">
         <v>200</v>
       </c>
+      <c r="D31" t="str">
+        <v>product_30.png</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -664,6 +759,9 @@
       <c r="C32">
         <v>100</v>
       </c>
+      <c r="D32" t="str">
+        <v>product_31.png</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -672,11 +770,17 @@
       <c r="C33">
         <v>100</v>
       </c>
+      <c r="D33" t="str">
+        <v>product_32.png</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
         <v>賀呷套餐</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="C34">
         <v>2500</v>
       </c>
@@ -685,9 +789,6 @@
       <c r="A35" t="str">
         <v>滿漢全席</v>
       </c>
-      <c r="B35">
-        <v>4500</v>
-      </c>
       <c r="C35">
         <v>4500</v>
       </c>
@@ -716,106 +817,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>招牌五花燒肉</v>
-      </c>
-      <c r="C39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>醬燒豬肉烤片</v>
-      </c>
-      <c r="C40">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>黑胡椒牛肉片</v>
-      </c>
-      <c r="C41">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>黑胡椒牛小排</v>
-      </c>
-      <c r="C42">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>活力鮮蝦</v>
-      </c>
-      <c r="C43">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>爆卵柳葉魚</v>
-      </c>
-      <c r="C44">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>素肉排</v>
-      </c>
-      <c r="C45">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>素甜不辣</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>筊白筍</v>
-      </c>
-      <c r="C47">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>生鮮青椒</v>
-      </c>
-      <c r="C48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>枸杞絲瓜鋁盒</v>
-      </c>
-      <c r="C49">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>韓式泡菜</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1000"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -442,9 +442,6 @@
       <c r="A4" t="str">
         <v>亙4.8棉布屋式帳篷(2人)</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
         <v>900</v>
       </c>
@@ -467,9 +464,6 @@
       <c r="A6" t="str">
         <v>印地安帳(3人)</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
         <v>700</v>
       </c>
@@ -655,10 +649,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>LED燈泡式氣氛燈串</v>
+        <v>LED手提鐵路復古營燈(白)</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D23" t="str">
         <v>product_22.png</v>
@@ -666,10 +660,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>LED復古露營燈</v>
+        <v>LED手提鐵路復古營燈(黑)</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D24" t="str">
         <v>product_23.png</v>
@@ -677,10 +671,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>LED手提鐵路復古營燈(黑)</v>
+        <v>LED復古露營燈</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D25" t="str">
         <v>product_24.png</v>
@@ -688,10 +682,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>LED手提鐵路復古營燈(白)</v>
+        <v>LED燈泡式氣氛燈串</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D26" t="str">
         <v>product_25.png</v>
@@ -777,9 +771,6 @@
     <row r="34">
       <c r="A34" t="str">
         <v>賀呷套餐</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
       </c>
       <c r="C34">
         <v>2500</v>

--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:C983"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,30 +413,27 @@
       <c r="C1" t="str">
         <v>金額</v>
       </c>
-      <c r="D1" t="str">
-        <v>圖片</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>鐘型帳(2~6人)</v>
+        <v>鐘型帳(2-6人)</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1800</v>
-      </c>
-      <c r="D2" t="str">
-        <v>product_1.png</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>亙5.6棉布屋式帳篷(2人)</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>800</v>
-      </c>
-      <c r="D3" t="str">
-        <v>product_2.png</v>
       </c>
     </row>
     <row r="4">
@@ -445,9 +443,6 @@
       <c r="C4">
         <v>900</v>
       </c>
-      <c r="D4" t="str">
-        <v>product_3.png</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -456,9 +451,6 @@
       <c r="C5">
         <v>900</v>
       </c>
-      <c r="D5" t="str">
-        <v>product_4.png</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -467,9 +459,6 @@
       <c r="C6">
         <v>700</v>
       </c>
-      <c r="D6" t="str">
-        <v>product_5.png</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -478,9 +467,6 @@
       <c r="C7">
         <v>1200</v>
       </c>
-      <c r="D7" t="str">
-        <v>product_6.png</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -489,9 +475,6 @@
       <c r="C8">
         <v>600</v>
       </c>
-      <c r="D8" t="str">
-        <v>product_7.png</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -500,9 +483,6 @@
       <c r="C9">
         <v>300</v>
       </c>
-      <c r="D9" t="str">
-        <v>product_8.png</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -511,9 +491,6 @@
       <c r="C10">
         <v>400</v>
       </c>
-      <c r="D10" t="str">
-        <v>product_9.png</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -522,9 +499,6 @@
       <c r="C11">
         <v>150</v>
       </c>
-      <c r="D11" t="str">
-        <v>product_10.png</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -533,9 +507,6 @@
       <c r="C12">
         <v>500</v>
       </c>
-      <c r="D12" t="str">
-        <v>product_11.png</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -544,9 +515,6 @@
       <c r="C13">
         <v>700</v>
       </c>
-      <c r="D13" t="str">
-        <v>product_12.png</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -555,9 +523,6 @@
       <c r="C14">
         <v>800</v>
       </c>
-      <c r="D14" t="str">
-        <v>product_13.png</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -566,9 +531,6 @@
       <c r="C15">
         <v>100</v>
       </c>
-      <c r="D15" t="str">
-        <v>product_14.png</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -577,9 +539,6 @@
       <c r="C16">
         <v>100</v>
       </c>
-      <c r="D16" t="str">
-        <v>product_15.png</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -588,9 +547,6 @@
       <c r="C17">
         <v>150</v>
       </c>
-      <c r="D17" t="str">
-        <v>product_16.png</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -599,9 +555,6 @@
       <c r="C18">
         <v>150</v>
       </c>
-      <c r="D18" t="str">
-        <v>product_17.png</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -610,9 +563,6 @@
       <c r="C19">
         <v>250</v>
       </c>
-      <c r="D19" t="str">
-        <v>product_18.png</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -621,9 +571,6 @@
       <c r="C20">
         <v>250</v>
       </c>
-      <c r="D20" t="str">
-        <v>product_19.png</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -632,9 +579,6 @@
       <c r="C21">
         <v>400</v>
       </c>
-      <c r="D21" t="str">
-        <v>product_20.png</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -643,52 +587,37 @@
       <c r="C22">
         <v>200</v>
       </c>
-      <c r="D22" t="str">
-        <v>product_21.png</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>LED手提鐵路復古營燈(白)</v>
+        <v>LED燈泡式氣氛燈串</v>
       </c>
       <c r="C23">
-        <v>200</v>
-      </c>
-      <c r="D23" t="str">
-        <v>product_22.png</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>LED手提鐵路復古營燈(黑)</v>
+        <v>LED復古露營燈</v>
       </c>
       <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24" t="str">
-        <v>product_23.png</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>LED復古露營燈</v>
+        <v>LED手提鐵路復古營燈(黑)</v>
       </c>
       <c r="C25">
-        <v>150</v>
-      </c>
-      <c r="D25" t="str">
-        <v>product_24.png</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>LED燈泡式氣氛燈串</v>
+        <v>LED手提鐵路復古營燈(白)</v>
       </c>
       <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26" t="str">
-        <v>product_25.png</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -698,9 +627,6 @@
       <c r="C27">
         <v>500</v>
       </c>
-      <c r="D27" t="str">
-        <v>product_26.png</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -709,9 +635,6 @@
       <c r="C28">
         <v>500</v>
       </c>
-      <c r="D28" t="str">
-        <v>product_27.png</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -720,9 +643,6 @@
       <c r="C29">
         <v>150</v>
       </c>
-      <c r="D29" t="str">
-        <v>product_28.png</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -731,9 +651,6 @@
       <c r="C30">
         <v>200</v>
       </c>
-      <c r="D30" t="str">
-        <v>product_29.png</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -742,9 +659,6 @@
       <c r="C31">
         <v>200</v>
       </c>
-      <c r="D31" t="str">
-        <v>product_30.png</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -753,9 +667,6 @@
       <c r="C32">
         <v>100</v>
       </c>
-      <c r="D32" t="str">
-        <v>product_31.png</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -764,54 +675,11 @@
       <c r="C33">
         <v>100</v>
       </c>
-      <c r="D33" t="str">
-        <v>product_32.png</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>賀呷套餐</v>
-      </c>
-      <c r="C34">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>滿漢全席</v>
-      </c>
-      <c r="C35">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>雙人套餐</v>
-      </c>
-      <c r="C36">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>素食套餐</v>
-      </c>
-      <c r="C37">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>快樂分享餐</v>
-      </c>
-      <c r="C38">
-        <v>4000</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C983"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -442,9 +442,6 @@
       <c r="A4" t="str">
         <v>亙4.8棉布屋式帳篷(2人)</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
         <v>900</v>
       </c>
@@ -467,9 +464,6 @@
       <c r="A6" t="str">
         <v>印地安帳(3人)</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
         <v>700</v>
       </c>
@@ -635,6 +629,9 @@
       <c r="A21" t="str">
         <v>自動製冰機</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21">
         <v>400</v>
       </c>
@@ -655,10 +652,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>LED燈泡式氣氛燈串</v>
+        <v>LED手提鐵路復古營燈(白)</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D23" t="str">
         <v>product_22.png</v>
@@ -666,10 +663,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>LED復古露營燈</v>
+        <v>LED手提鐵路復古營燈(黑)</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D24" t="str">
         <v>product_23.png</v>
@@ -677,10 +674,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>LED手提鐵路復古營燈(黑)</v>
+        <v>LED復古露營燈</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D25" t="str">
         <v>product_24.png</v>
@@ -688,10 +685,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>LED手提鐵路復古營燈(白)</v>
+        <v>LED燈泡式氣氛燈串</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D26" t="str">
         <v>product_25.png</v>
@@ -777,9 +774,6 @@
     <row r="34">
       <c r="A34" t="str">
         <v>賀呷套餐</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
       </c>
       <c r="C34">
         <v>2500</v>

--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -486,6 +486,9 @@
       <c r="A8" t="str">
         <v>客廳帳篷(10人)</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>600</v>
       </c>

--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>鐘型帳(2~6人)</v>
+        <v>鐘型帳(2-6人)</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1800</v>
@@ -464,6 +467,9 @@
       <c r="A6" t="str">
         <v>印地安帳(3人)</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>700</v>
       </c>
@@ -486,6 +492,9 @@
       <c r="A8" t="str">
         <v>客廳帳篷(10人)</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>600</v>
       </c>
@@ -541,6 +550,9 @@
       <c r="A13" t="str">
         <v>空氣床(L size)</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
         <v>700</v>
       </c>
@@ -629,9 +641,6 @@
       <c r="A21" t="str">
         <v>自動製冰機</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
         <v>400</v>
       </c>
@@ -771,50 +780,10 @@
         <v>product_32.png</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>賀呷套餐</v>
-      </c>
-      <c r="C34">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>滿漢全席</v>
-      </c>
-      <c r="C35">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>雙人套餐</v>
-      </c>
-      <c r="C36">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>素食套餐</v>
-      </c>
-      <c r="C37">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>快樂分享餐</v>
-      </c>
-      <c r="C38">
-        <v>4000</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z983"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/UpdatedHowTo露.xlsx
+++ b/public/excel/UpdatedHowTo露.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>鐘型帳(2~6人)</v>
+        <v>鐘型帳(2-6人)</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1800</v>
@@ -486,9 +489,6 @@
       <c r="A8" t="str">
         <v>客廳帳篷(10人)</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
         <v>600</v>
       </c>
@@ -500,6 +500,9 @@
       <c r="A9" t="str">
         <v>天幕(米色)</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9">
         <v>300</v>
       </c>
@@ -533,6 +536,9 @@
       <c r="A12" t="str">
         <v>空氣床(M size)</v>
       </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
       <c r="C12">
         <v>500</v>
       </c>
@@ -610,6 +616,9 @@
       <c r="A19" t="str">
         <v>櫸木蛋捲桌</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
       <c r="C19">
         <v>250</v>
       </c>
@@ -632,6 +641,9 @@
       <c r="A21" t="str">
         <v>自動製冰機</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
       <c r="C21">
         <v>400</v>
       </c>
@@ -643,6 +655,9 @@
       <c r="A22" t="str">
         <v>拉桿冰桶</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22">
         <v>200</v>
       </c>
@@ -771,50 +786,10 @@
         <v>product_32.png</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>賀呷套餐</v>
-      </c>
-      <c r="C34">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>滿漢全席</v>
-      </c>
-      <c r="C35">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>雙人套餐</v>
-      </c>
-      <c r="C36">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>素食套餐</v>
-      </c>
-      <c r="C37">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>快樂分享餐</v>
-      </c>
-      <c r="C38">
-        <v>4000</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z983"/>
   </ignoredErrors>
 </worksheet>
 </file>